--- a/test/testPCA.xlsx
+++ b/test/testPCA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CIODS\virhost_lncr\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3108FED-B8AF-429C-AA00-CCB7579747BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5855357D-12B8-455C-A883-484232C6C4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <t>sampleC</t>
   </si>
   <si>
-    <t>samples</t>
+    <t>sample</t>
   </si>
 </sst>
 </file>
@@ -369,10 +369,14 @@
   <dimension ref="A1:D789"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+    <col min="4" max="4" width="40.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
